--- a/Arkusze/Arkusz02/zadanie5.xlsx
+++ b/Arkusze/Arkusz02/zadanie5.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maks\Documents\GitHub\KorkiCPP\Arkusze\Arkusz02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projekty\cpp\KorkiCPP\Arkusze\Arkusz02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF0CF81-5910-435F-B5EB-F4C727331008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DE2383-9BB0-4B7A-8169-56CD2ADF2671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Zadanie 2" sheetId="4" r:id="rId1"/>
+    <sheet name="Dane" sheetId="2" r:id="rId1"/>
     <sheet name="Zadanie 1" sheetId="3" r:id="rId2"/>
-    <sheet name="Dane" sheetId="2" r:id="rId3"/>
+    <sheet name="Zadanie 2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Dane!$A$1:$B$184</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Dane!$A$1:$B$184</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Zadanie 1'!$A$1:$B$184</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -168,6 +168,17 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{88F3CE4D-3BD6-4EDC-9E56-FEA165BAB7F8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="3">
+    <queryTableFields count="2">
+      <queryTableField id="1" name="temperatura_srednia" tableColumnId="1"/>
+      <queryTableField id="2" name="opady" tableColumnId="2"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{49809725-39D9-4B30-9041-64339A907274}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="2">
@@ -178,34 +189,12 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{88F3CE4D-3BD6-4EDC-9E56-FEA165BAB7F8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="3">
-    <queryTableFields count="2">
-      <queryTableField id="1" name="temperatura_srednia" tableColumnId="1"/>
-      <queryTableField id="2" name="opady" tableColumnId="2"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DBC9FF70-217D-47C9-B789-6BD9EEA2B663}" name="pogoda5" displayName="pogoda5" ref="A1:E184">
-  <autoFilter ref="A1:E184" xr:uid="{AB5F55EE-F5EB-44CD-B6F7-574F44ACA1EB}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{41F0B911-FA5D-46C9-A6D6-AA8138788722}" name="temperatura_srednia" totalsRowLabel="Suma"/>
-    <tableColumn id="2" xr3:uid="{5B8F1966-6498-4830-830D-7DF843B0A378}" name="opady" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{02D86EB1-6D10-45CC-855F-B3251573B44F}" name="Data"/>
-    <tableColumn id="6" xr3:uid="{BD30AA74-1401-40E5-B4EF-189DD1101573}" name="Ile wody było uzupelnione? (W litrach)">
-      <calculatedColumnFormula>B2*700</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{9653E61B-BB77-42FF-A0FA-F727CA2205F8}" name="Illosc wody utraconej przez parowanie (W litrach)"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB5F55EE-F5EB-44CD-B6F7-574F44ACA1EB}" name="pogoda" displayName="pogoda" ref="A1:B184" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B184" xr:uid="{AB5F55EE-F5EB-44CD-B6F7-574F44ACA1EB}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4FBAF897-2F21-4577-BBFE-65BF783DB69F}" uniqueName="1" name="temperatura_srednia" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{B470ECE5-5DA8-4FB6-90A4-BC3913E58D8B}" uniqueName="2" name="opady" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -223,11 +212,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB5F55EE-F5EB-44CD-B6F7-574F44ACA1EB}" name="pogoda" displayName="pogoda" ref="A1:B184" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B184" xr:uid="{AB5F55EE-F5EB-44CD-B6F7-574F44ACA1EB}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4FBAF897-2F21-4577-BBFE-65BF783DB69F}" uniqueName="1" name="temperatura_srednia" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{B470ECE5-5DA8-4FB6-90A4-BC3913E58D8B}" uniqueName="2" name="opady" queryTableFieldId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DBC9FF70-217D-47C9-B789-6BD9EEA2B663}" name="pogoda5" displayName="pogoda5" ref="A1:E184">
+  <autoFilter ref="A1:E184" xr:uid="{AB5F55EE-F5EB-44CD-B6F7-574F44ACA1EB}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{41F0B911-FA5D-46C9-A6D6-AA8138788722}" name="temperatura_srednia" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{5B8F1966-6498-4830-830D-7DF843B0A378}" name="opady" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{02D86EB1-6D10-45CC-855F-B3251573B44F}" name="Data"/>
+    <tableColumn id="6" xr3:uid="{BD30AA74-1401-40E5-B4EF-189DD1101573}" name="Ile wody było uzupelnione? (W litrach)">
+      <calculatedColumnFormula>B2*700</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{9653E61B-BB77-42FF-A0FA-F727CA2205F8}" name="Illosc wody utraconej przez parowanie (W litrach)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -495,3522 +495,1495 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6ED1BA2-B61F-4D47-8412-93E5C7D1F203}">
-  <dimension ref="A1:E184"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826A077F-4255-412B-8099-70E9BF4AF16E}">
+  <dimension ref="A1:B184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" customWidth="1"/>
-    <col min="5" max="5" width="42.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <v>42095</v>
-      </c>
-      <c r="D2">
-        <f>B2*700</f>
-        <v>1400</v>
-      </c>
-      <c r="E2">
-        <f>0.0003*A2^1.5*0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
-        <v>42096</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">B3*700</f>
-        <v>4200</v>
-      </c>
-      <c r="E3">
-        <f>0.0003*A3^1.5*D2</f>
-        <v>1.1879393923933996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>42097</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E67" si="1">0.0003*A4^1.5*D3</f>
-        <v>10.079999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
-      <c r="C5" s="3">
-        <v>42098</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>560</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>1.6799999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>42099</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.87295360701471403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
-        <v>42100</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
-        <v>42101</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
-        <v>42102</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>4.7517575695735959</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
-        <v>42103</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>3.0863570759068049</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
-        <v>42104</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>11.34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="3">
-        <v>42105</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>17.459072140294289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
-        <v>42106</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>19.922349259060795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
-        <v>42107</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>9.5035151391471917</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" s="3">
-        <v>42108</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>3.0863570759068049</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" s="3">
-        <v>42109</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17" s="3">
-        <v>42110</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="3">
-        <v>42111</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="3">
-        <v>42112</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="3">
-        <v>42113</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="3">
-        <v>42114</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
       <c r="B22">
         <v>3.2</v>
       </c>
-      <c r="C22" s="3">
-        <v>42115</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>2240</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>7.6614032657209741</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
       <c r="B23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C23" s="3">
-        <v>42116</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1540.0000000000002</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>15.205624222635507</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="3">
-        <v>42117</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>16.855087184586147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="3">
-        <v>42118</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>8.7295360701471445</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="3">
-        <v>42119</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>11.000472717115382</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>16</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" s="3">
-        <v>42120</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>13.439999999999994</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>16</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="3">
-        <v>42121</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="3">
-        <v>42122</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>3.0863570759068049</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" s="3">
-        <v>42123</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>7.7785088545298935</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="3">
-        <v>42124</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
-      <c r="C32" s="3">
-        <v>42125</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>2800</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
-      <c r="C33" s="3">
-        <v>42126</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>15.557017709059787</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
-      <c r="C34" s="3">
-        <v>42127</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>2800</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>28.349999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
       <c r="B35">
         <v>0.4</v>
       </c>
-      <c r="C35" s="3">
-        <v>42128</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>48.799590162213441</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>18</v>
       </c>
       <c r="B36">
         <v>0.4</v>
       </c>
-      <c r="C36" s="3">
-        <v>42129</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>6.4148727189243546</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-      <c r="C37" s="3">
-        <v>42130</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>5.3759999999999977</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>14</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" s="3">
-        <v>42131</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39" s="3">
-        <v>42132</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14</v>
       </c>
       <c r="B40">
         <v>0.3</v>
       </c>
-      <c r="C40" s="3">
-        <v>42133</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
       <c r="B41">
         <v>0.1</v>
       </c>
-      <c r="C41" s="3">
-        <v>42134</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>2.6188608210441431</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42" s="3">
-        <v>42135</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>0.76614032657209741</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>16</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
-      <c r="C43" s="3">
-        <v>42136</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-      <c r="C44" s="3">
-        <v>42137</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>26.188608210441433</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-      <c r="C45" s="3">
-        <v>42138</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-      <c r="C46" s="3">
-        <v>42139</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
       <c r="B47">
         <v>1.8</v>
       </c>
-      <c r="C47" s="3">
-        <v>42140</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>1260</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
       <c r="B48">
         <v>2.8</v>
       </c>
-      <c r="C48" s="3">
-        <v>42141</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>1959.9999999999998</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>13.790525878297753</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
       <c r="B49">
         <v>1.9</v>
       </c>
-      <c r="C49" s="3">
-        <v>42142</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>1330</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="1"/>
-        <v>24.442700996412</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>16</v>
       </c>
       <c r="B50">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C50" s="3">
-        <v>42143</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>1540.0000000000002</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="1"/>
-        <v>25.535999999999987</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>13</v>
       </c>
       <c r="B51">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C51" s="3">
-        <v>42144</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>1609.9999999999998</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="1"/>
-        <v>21.654940960436726</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11</v>
       </c>
       <c r="B52">
         <v>5.4</v>
       </c>
-      <c r="C52" s="3">
-        <v>42145</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>3780.0000000000005</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>17.621227511158239</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12</v>
       </c>
       <c r="B53">
         <v>5.5</v>
       </c>
-      <c r="C53" s="3">
-        <v>42146</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>3850</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="1"/>
-        <v>47.139494778794585</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
       <c r="B54">
         <v>5.2</v>
       </c>
-      <c r="C54" s="3">
-        <v>42147</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>3640</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="1"/>
-        <v>48.012448385809293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>14</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-      <c r="C55" s="3">
-        <v>42148</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="1"/>
-        <v>57.202458128999986</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56" s="3">
-        <v>42149</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="1"/>
-        <v>36.599692621660076</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>14</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-      <c r="C57" s="3">
-        <v>42150</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58" s="3">
-        <v>42151</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12</v>
       </c>
       <c r="B59">
         <v>0.1</v>
       </c>
-      <c r="C59" s="3">
-        <v>42152</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>14</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-      <c r="C60" s="3">
-        <v>42153</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>1.1000472717115382</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>13</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-      <c r="C61" s="3">
-        <v>42154</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-      <c r="C62" s="3">
-        <v>42155</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>18</v>
       </c>
       <c r="B63">
         <v>4</v>
       </c>
-      <c r="C63" s="3">
-        <v>42156</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="0"/>
-        <v>2800</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>18</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
-      <c r="C64" s="3">
-        <v>42157</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="1"/>
-        <v>64.148727189243544</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>22</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-      <c r="C65" s="3">
-        <v>42158</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="1"/>
-        <v>65.00916243115276</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>15</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-      <c r="C66" s="3">
-        <v>42159</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>18</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-      <c r="C67" s="3">
-        <v>42160</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D130" si="2">B67*700</f>
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>22</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-      <c r="C68" s="3">
-        <v>42161</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <f t="shared" ref="E68:E131" si="3">0.0003*A68^1.5*D67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>14</v>
       </c>
       <c r="B69">
         <v>8</v>
       </c>
-      <c r="C69" s="3">
-        <v>42162</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="2"/>
-        <v>5600</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
       <c r="B70">
         <v>5.9</v>
       </c>
-      <c r="C70" s="3">
-        <v>42163</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="2"/>
-        <v>4130</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="3"/>
-        <v>88.003781736923059</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
-      <c r="C71" s="3">
-        <v>42164</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="2"/>
-        <v>3500</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="3"/>
-        <v>51.504262813868152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>16</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
-      <c r="C72" s="3">
-        <v>42165</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="3"/>
-        <v>67.199999999999974</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>16</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-      <c r="C73" s="3">
-        <v>42166</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>18</v>
       </c>
       <c r="B74">
         <v>5</v>
       </c>
-      <c r="C74" s="3">
-        <v>42167</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="2"/>
-        <v>3500</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>19</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-      <c r="C75" s="3">
-        <v>42168</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="2"/>
-        <v>700</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="3"/>
-        <v>86.960033923636402</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>22</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-      <c r="C76" s="3">
-        <v>42169</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="3"/>
-        <v>21.669720810384252</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-      <c r="C77" s="3">
-        <v>42170</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
-      <c r="C78" s="3">
-        <v>42171</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>14</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-      <c r="C79" s="3">
-        <v>42172</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>16</v>
       </c>
       <c r="B80">
         <v>0.3</v>
       </c>
-      <c r="C80" s="3">
-        <v>42173</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>12</v>
       </c>
       <c r="B81">
         <v>3</v>
       </c>
-      <c r="C81" s="3">
-        <v>42174</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="2"/>
-        <v>2100</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="3"/>
-        <v>2.6188608210441431</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>13</v>
       </c>
       <c r="B82">
         <v>2</v>
       </c>
-      <c r="C82" s="3">
-        <v>42175</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="2"/>
-        <v>1400</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="3"/>
-        <v>29.529464946050073</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>12</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83" s="3">
-        <v>42176</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="3"/>
-        <v>17.459072140294289</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>12</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
-      <c r="C84" s="3">
-        <v>42177</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="2"/>
-        <v>2100</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>13</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
-      <c r="C85" s="3">
-        <v>42178</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="2"/>
-        <v>2100</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="3"/>
-        <v>29.529464946050073</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>12</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-      <c r="C86" s="3">
-        <v>42179</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="3"/>
-        <v>26.188608210441433</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>16</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87" s="3">
-        <v>42180</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>16</v>
       </c>
       <c r="B88">
         <v>7</v>
       </c>
-      <c r="C88" s="3">
-        <v>42181</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="2"/>
-        <v>4900</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>18</v>
       </c>
       <c r="B89">
         <v>6</v>
       </c>
-      <c r="C89" s="3">
-        <v>42182</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="2"/>
-        <v>4200</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="3"/>
-        <v>112.2602725811762</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>16</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-      <c r="C90" s="3">
-        <v>42183</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="3"/>
-        <v>80.639999999999958</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>16</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-      <c r="C91" s="3">
-        <v>42184</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>19</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-      <c r="C92" s="3">
-        <v>42185</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>18</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-      <c r="C93" s="3">
-        <v>42186</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
-      <c r="C94" s="3">
-        <v>42187</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>22</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
-      <c r="C95" s="3">
-        <v>42188</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>25</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96" s="3">
-        <v>42189</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>26</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
-      <c r="C97" s="3">
-        <v>42190</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>22</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
-      <c r="C98" s="3">
-        <v>42191</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>22</v>
       </c>
       <c r="B99">
         <v>18</v>
       </c>
-      <c r="C99" s="3">
-        <v>42192</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="2"/>
-        <v>12600</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20</v>
       </c>
       <c r="B100">
         <v>3</v>
       </c>
-      <c r="C100" s="3">
-        <v>42193</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="2"/>
-        <v>2100</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="3"/>
-        <v>338.09347819796818</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>16</v>
       </c>
       <c r="B101">
         <v>0.2</v>
       </c>
-      <c r="C101" s="3">
-        <v>42194</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="3"/>
-        <v>40.319999999999979</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>13</v>
       </c>
       <c r="B102">
         <v>12.2</v>
       </c>
-      <c r="C102" s="3">
-        <v>42195</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="2"/>
-        <v>8540</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="3"/>
-        <v>1.9686309964033382</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>16</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-      <c r="C103" s="3">
-        <v>42196</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="3"/>
-        <v>163.96799999999993</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>18</v>
       </c>
       <c r="B104">
         <v>2</v>
       </c>
-      <c r="C104" s="3">
-        <v>42197</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="2"/>
-        <v>1400</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>18</v>
       </c>
       <c r="B105">
         <v>12</v>
       </c>
-      <c r="C105" s="3">
-        <v>42198</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="2"/>
-        <v>8400</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="3"/>
-        <v>32.074363594621772</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>18</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
-      <c r="C106" s="3">
-        <v>42199</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="3"/>
-        <v>192.44618156773063</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>18</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-      <c r="C107" s="3">
-        <v>42200</v>
-      </c>
-      <c r="D107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>16</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
-      <c r="C108" s="3">
-        <v>42201</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>21</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-      <c r="C109" s="3">
-        <v>42202</v>
-      </c>
-      <c r="D109">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>26</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110" s="3">
-        <v>42203</v>
-      </c>
-      <c r="D110">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>23</v>
       </c>
       <c r="B111">
         <v>18</v>
       </c>
-      <c r="C111" s="3">
-        <v>42204</v>
-      </c>
-      <c r="D111">
-        <f t="shared" si="2"/>
-        <v>12600</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>19</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
-      <c r="C112" s="3">
-        <v>42205</v>
-      </c>
-      <c r="D112">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="3"/>
-        <v>313.05612212509101</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>20</v>
       </c>
       <c r="B113">
         <v>6</v>
       </c>
-      <c r="C113" s="3">
-        <v>42206</v>
-      </c>
-      <c r="D113">
-        <f t="shared" si="2"/>
-        <v>4200</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>22</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
-      <c r="C114" s="3">
-        <v>42207</v>
-      </c>
-      <c r="D114">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="3"/>
-        <v>130.01832486230552</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>20</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
-      <c r="C115" s="3">
-        <v>42208</v>
-      </c>
-      <c r="D115">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>20</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
-      <c r="C116" s="3">
-        <v>42209</v>
-      </c>
-      <c r="D116">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>23</v>
       </c>
       <c r="B117">
         <v>0.1</v>
       </c>
-      <c r="C117" s="3">
-        <v>42210</v>
-      </c>
-      <c r="D117">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>16</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
-      <c r="C118" s="3">
-        <v>42211</v>
-      </c>
-      <c r="D118">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="3"/>
-        <v>1.3439999999999994</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>16</v>
       </c>
       <c r="B119">
         <v>0.1</v>
       </c>
-      <c r="C119" s="3">
-        <v>42212</v>
-      </c>
-      <c r="D119">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>18</v>
       </c>
       <c r="B120">
         <v>0.3</v>
       </c>
-      <c r="C120" s="3">
-        <v>42213</v>
-      </c>
-      <c r="D120">
-        <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="3"/>
-        <v>1.6037181797310887</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>18</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-      <c r="C121" s="3">
-        <v>42214</v>
-      </c>
-      <c r="D121">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="3"/>
-        <v>4.8111545391932653</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>14</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
-      <c r="C122" s="3">
-        <v>42215</v>
-      </c>
-      <c r="D122">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>14</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-      <c r="C123" s="3">
-        <v>42216</v>
-      </c>
-      <c r="D123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>16</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
-      <c r="C124" s="3">
-        <v>42217</v>
-      </c>
-      <c r="D124">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>22</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
-      <c r="C125" s="3">
-        <v>42218</v>
-      </c>
-      <c r="D125">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>22</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
-      <c r="C126" s="3">
-        <v>42219</v>
-      </c>
-      <c r="D126">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>25</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-      <c r="C127" s="3">
-        <v>42220</v>
-      </c>
-      <c r="D127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>24</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
-      <c r="C128" s="3">
-        <v>42221</v>
-      </c>
-      <c r="D128">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E128">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>24</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
-      <c r="C129" s="3">
-        <v>42222</v>
-      </c>
-      <c r="D129">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E129">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>28</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
-      <c r="C130" s="3">
-        <v>42223</v>
-      </c>
-      <c r="D130">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>28</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
-      <c r="C131" s="3">
-        <v>42224</v>
-      </c>
-      <c r="D131">
-        <f t="shared" ref="D131:D184" si="4">B131*700</f>
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>24</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
-      <c r="C132" s="3">
-        <v>42225</v>
-      </c>
-      <c r="D132">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <f t="shared" ref="E132:E184" si="5">0.0003*A132^1.5*D131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>24</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
-      <c r="C133" s="3">
-        <v>42226</v>
-      </c>
-      <c r="D133">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>26</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
-      <c r="C134" s="3">
-        <v>42227</v>
-      </c>
-      <c r="D134">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>32</v>
       </c>
       <c r="B135">
         <v>0.6</v>
       </c>
-      <c r="C135" s="3">
-        <v>42228</v>
-      </c>
-      <c r="D135">
-        <f t="shared" si="4"/>
-        <v>420</v>
-      </c>
-      <c r="E135">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>31</v>
       </c>
       <c r="B136">
         <v>0.1</v>
       </c>
-      <c r="C136" s="3">
-        <v>42229</v>
-      </c>
-      <c r="D136">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="E136">
-        <f t="shared" si="5"/>
-        <v>21.747687601214075</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>33</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
-      <c r="C137" s="3">
-        <v>42230</v>
-      </c>
-      <c r="D137">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <f t="shared" si="5"/>
-        <v>3.9809819140508544</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>31</v>
       </c>
       <c r="B138">
         <v>12</v>
       </c>
-      <c r="C138" s="3">
-        <v>42231</v>
-      </c>
-      <c r="D138">
-        <f t="shared" si="4"/>
-        <v>8400</v>
-      </c>
-      <c r="E138">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>22</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
-      <c r="C139" s="3">
-        <v>42232</v>
-      </c>
-      <c r="D139">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <f t="shared" si="5"/>
-        <v>260.03664972461104</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>24</v>
       </c>
       <c r="B140">
         <v>0.2</v>
       </c>
-      <c r="C140" s="3">
-        <v>42233</v>
-      </c>
-      <c r="D140">
-        <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="E140">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>22</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
-      <c r="C141" s="3">
-        <v>42234</v>
-      </c>
-      <c r="D141">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <f t="shared" si="5"/>
-        <v>4.3339441620768504</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>19</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
-      <c r="C142" s="3">
-        <v>42235</v>
-      </c>
-      <c r="D142">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>18</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
-      <c r="C143" s="3">
-        <v>42236</v>
-      </c>
-      <c r="D143">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>18</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
-      <c r="C144" s="3">
-        <v>42237</v>
-      </c>
-      <c r="D144">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>18</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
-      <c r="C145" s="3">
-        <v>42238</v>
-      </c>
-      <c r="D145">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>19</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
-      <c r="C146" s="3">
-        <v>42239</v>
-      </c>
-      <c r="D146">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>21</v>
       </c>
       <c r="B147">
         <v>5.5</v>
       </c>
-      <c r="C147" s="3">
-        <v>42240</v>
-      </c>
-      <c r="D147">
-        <f t="shared" si="4"/>
-        <v>3850</v>
-      </c>
-      <c r="E147">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>18</v>
       </c>
       <c r="B148">
         <v>18</v>
       </c>
-      <c r="C148" s="3">
-        <v>42241</v>
-      </c>
-      <c r="D148">
-        <f t="shared" si="4"/>
-        <v>12600</v>
-      </c>
-      <c r="E148">
-        <f t="shared" si="5"/>
-        <v>88.20449988520987</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>19</v>
       </c>
       <c r="B149">
         <v>12</v>
       </c>
-      <c r="C149" s="3">
-        <v>42242</v>
-      </c>
-      <c r="D149">
-        <f t="shared" si="4"/>
-        <v>8400</v>
-      </c>
-      <c r="E149">
-        <f t="shared" si="5"/>
-        <v>313.05612212509101</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>23</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
-      <c r="C150" s="3">
-        <v>42243</v>
-      </c>
-      <c r="D150">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <f t="shared" si="5"/>
-        <v>277.96639509120519</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>17</v>
       </c>
       <c r="B151">
         <v>0.1</v>
       </c>
-      <c r="C151" s="3">
-        <v>42244</v>
-      </c>
-      <c r="D151">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="E151">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>16</v>
       </c>
       <c r="B152">
         <v>14</v>
       </c>
-      <c r="C152" s="3">
-        <v>42245</v>
-      </c>
-      <c r="D152">
-        <f t="shared" si="4"/>
-        <v>9800</v>
-      </c>
-      <c r="E152">
-        <f t="shared" si="5"/>
-        <v>1.3439999999999994</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>22</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
-      <c r="C153" s="3">
-        <v>42246</v>
-      </c>
-      <c r="D153">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <f t="shared" si="5"/>
-        <v>303.37609134537951</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>26</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
-      <c r="C154" s="3">
-        <v>42247</v>
-      </c>
-      <c r="D154">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>27</v>
       </c>
       <c r="B155">
         <v>2</v>
       </c>
-      <c r="C155" s="3">
-        <v>42248</v>
-      </c>
-      <c r="D155">
-        <f t="shared" si="4"/>
-        <v>1400</v>
-      </c>
-      <c r="E155">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>18</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
-      <c r="C156" s="3">
-        <v>42249</v>
-      </c>
-      <c r="D156">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <f t="shared" si="5"/>
-        <v>32.074363594621772</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>17</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
-      <c r="C157" s="3">
-        <v>42250</v>
-      </c>
-      <c r="D157">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E157">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>16</v>
       </c>
       <c r="B158">
         <v>0.1</v>
       </c>
-      <c r="C158" s="3">
-        <v>42251</v>
-      </c>
-      <c r="D158">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="E158">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>15</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
-      <c r="C159" s="3">
-        <v>42252</v>
-      </c>
-      <c r="D159">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E159">
-        <f t="shared" si="5"/>
-        <v>1.2199897540553359</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>12</v>
       </c>
       <c r="B160">
         <v>4</v>
       </c>
-      <c r="C160" s="3">
-        <v>42253</v>
-      </c>
-      <c r="D160">
-        <f t="shared" si="4"/>
-        <v>2800</v>
-      </c>
-      <c r="E160">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>13</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
-      <c r="C161" s="3">
-        <v>42254</v>
-      </c>
-      <c r="D161">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <f t="shared" si="5"/>
-        <v>39.372619928066769</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>11</v>
       </c>
       <c r="B162">
         <v>4</v>
       </c>
-      <c r="C162" s="3">
-        <v>42255</v>
-      </c>
-      <c r="D162">
-        <f t="shared" si="4"/>
-        <v>2800</v>
-      </c>
-      <c r="E162">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>11</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
-      <c r="C163" s="3">
-        <v>42256</v>
-      </c>
-      <c r="D163">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E163">
-        <f t="shared" si="5"/>
-        <v>30.645613062883896</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>12</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
-      <c r="C164" s="3">
-        <v>42257</v>
-      </c>
-      <c r="D164">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E164">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>16</v>
       </c>
       <c r="B165">
         <v>0.1</v>
       </c>
-      <c r="C165" s="3">
-        <v>42258</v>
-      </c>
-      <c r="D165">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="E165">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>18</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
-      <c r="C166" s="3">
-        <v>42259</v>
-      </c>
-      <c r="D166">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E166">
-        <f t="shared" si="5"/>
-        <v>1.6037181797310887</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>18</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
-      <c r="C167" s="3">
-        <v>42260</v>
-      </c>
-      <c r="D167">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E167">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>19</v>
       </c>
       <c r="B168">
         <v>3</v>
       </c>
-      <c r="C168" s="3">
-        <v>42261</v>
-      </c>
-      <c r="D168">
-        <f t="shared" si="4"/>
-        <v>2100</v>
-      </c>
-      <c r="E168">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>16</v>
       </c>
       <c r="B169">
         <v>0.1</v>
       </c>
-      <c r="C169" s="3">
-        <v>42262</v>
-      </c>
-      <c r="D169">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="E169">
-        <f t="shared" si="5"/>
-        <v>40.319999999999979</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>18</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
-      <c r="C170" s="3">
-        <v>42263</v>
-      </c>
-      <c r="D170">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E170">
-        <f t="shared" si="5"/>
-        <v>1.6037181797310887</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>22</v>
       </c>
       <c r="B171">
         <v>0.5</v>
       </c>
-      <c r="C171" s="3">
-        <v>42264</v>
-      </c>
-      <c r="D171">
-        <f t="shared" si="4"/>
-        <v>350</v>
-      </c>
-      <c r="E171">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>16</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
-      <c r="C172" s="3">
-        <v>42265</v>
-      </c>
-      <c r="D172">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E172">
-        <f t="shared" si="5"/>
-        <v>6.7199999999999971</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>15</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
-      <c r="C173" s="3">
-        <v>42266</v>
-      </c>
-      <c r="D173">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>14</v>
       </c>
       <c r="B174">
         <v>2</v>
       </c>
-      <c r="C174" s="3">
-        <v>42267</v>
-      </c>
-      <c r="D174">
-        <f t="shared" si="4"/>
-        <v>1400</v>
-      </c>
-      <c r="E174">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>12</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
-      <c r="C175" s="3">
-        <v>42268</v>
-      </c>
-      <c r="D175">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E175">
-        <f t="shared" si="5"/>
-        <v>17.459072140294289</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>13</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
-      <c r="C176" s="3">
-        <v>42269</v>
-      </c>
-      <c r="D176">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E176">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>15</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
-      <c r="C177" s="3">
-        <v>42270</v>
-      </c>
-      <c r="D177">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E177">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>15</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
-      <c r="C178" s="3">
-        <v>42271</v>
-      </c>
-      <c r="D178">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E178">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>14</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
-      <c r="C179" s="3">
-        <v>42272</v>
-      </c>
-      <c r="D179">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E179">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>12</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
-      <c r="C180" s="3">
-        <v>42273</v>
-      </c>
-      <c r="D180">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E180">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>11</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
-      <c r="C181" s="3">
-        <v>42274</v>
-      </c>
-      <c r="D181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E181">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>10</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
-      <c r="C182" s="3">
-        <v>42275</v>
-      </c>
-      <c r="D182">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E182">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>10</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
-      <c r="C183" s="3">
-        <v>42276</v>
-      </c>
-      <c r="D183">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E183">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>10</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
-      <c r="C184" s="3">
-        <v>42277</v>
-      </c>
-      <c r="D184">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E184">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4020,20 +1993,20 @@
   <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="27.81640625" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" customWidth="1"/>
-    <col min="7" max="7" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4051,7 +2024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -4074,7 +2047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4082,7 +2055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4090,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4098,7 +2071,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4106,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4114,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4122,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4130,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -4138,7 +2111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4146,7 +2119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -4154,7 +2127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4162,7 +2135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -4170,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -4178,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4186,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -4194,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -4202,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -4210,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -4218,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
@@ -4226,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
@@ -4234,7 +2207,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -4242,7 +2215,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
@@ -4250,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
@@ -4258,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -4266,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>16</v>
       </c>
@@ -4274,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>16</v>
       </c>
@@ -4282,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -4290,7 +2263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7</v>
       </c>
@@ -4298,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
@@ -4306,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10</v>
       </c>
@@ -4314,7 +2287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
@@ -4322,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -4330,7 +2303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
@@ -4338,7 +2311,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>18</v>
       </c>
@@ -4346,7 +2319,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
@@ -4354,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>14</v>
       </c>
@@ -4362,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10</v>
       </c>
@@ -4370,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14</v>
       </c>
@@ -4378,7 +2351,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -4386,7 +2359,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11</v>
       </c>
@@ -4394,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>16</v>
       </c>
@@ -4402,7 +2375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12</v>
       </c>
@@ -4410,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
@@ -4418,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12</v>
       </c>
@@ -4426,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -4434,7 +2407,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -4442,7 +2415,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -4450,7 +2423,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>16</v>
       </c>
@@ -4458,7 +2431,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>13</v>
       </c>
@@ -4466,7 +2439,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11</v>
       </c>
@@ -4474,7 +2447,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12</v>
       </c>
@@ -4482,7 +2455,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
@@ -4490,7 +2463,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>14</v>
       </c>
@@ -4498,7 +2471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15</v>
       </c>
@@ -4506,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>14</v>
       </c>
@@ -4514,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10</v>
       </c>
@@ -4522,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12</v>
       </c>
@@ -4530,7 +2503,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>14</v>
       </c>
@@ -4538,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>13</v>
       </c>
@@ -4546,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12</v>
       </c>
@@ -4554,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>18</v>
       </c>
@@ -4562,7 +2535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>18</v>
       </c>
@@ -4570,7 +2543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>22</v>
       </c>
@@ -4578,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>15</v>
       </c>
@@ -4586,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>18</v>
       </c>
@@ -4594,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>22</v>
       </c>
@@ -4602,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>14</v>
       </c>
@@ -4610,7 +2583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
@@ -4618,7 +2591,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12</v>
       </c>
@@ -4626,7 +2599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>16</v>
       </c>
@@ -4634,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>16</v>
       </c>
@@ -4642,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>18</v>
       </c>
@@ -4650,7 +2623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>19</v>
       </c>
@@ -4658,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>22</v>
       </c>
@@ -4666,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -4674,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12</v>
       </c>
@@ -4682,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>14</v>
       </c>
@@ -4690,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>16</v>
       </c>
@@ -4698,7 +2671,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>12</v>
       </c>
@@ -4706,7 +2679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>13</v>
       </c>
@@ -4714,7 +2687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>12</v>
       </c>
@@ -4722,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>12</v>
       </c>
@@ -4730,7 +2703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>13</v>
       </c>
@@ -4738,7 +2711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>12</v>
       </c>
@@ -4746,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>16</v>
       </c>
@@ -4754,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>16</v>
       </c>
@@ -4762,7 +2735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>18</v>
       </c>
@@ -4770,7 +2743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>16</v>
       </c>
@@ -4778,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>16</v>
       </c>
@@ -4786,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>19</v>
       </c>
@@ -4794,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>18</v>
       </c>
@@ -4802,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20</v>
       </c>
@@ -4810,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>22</v>
       </c>
@@ -4818,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>25</v>
       </c>
@@ -4826,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>26</v>
       </c>
@@ -4834,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>22</v>
       </c>
@@ -4842,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>22</v>
       </c>
@@ -4850,7 +2823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20</v>
       </c>
@@ -4858,7 +2831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>16</v>
       </c>
@@ -4866,7 +2839,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>13</v>
       </c>
@@ -4874,7 +2847,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>16</v>
       </c>
@@ -4882,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>18</v>
       </c>
@@ -4890,7 +2863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>18</v>
       </c>
@@ -4898,7 +2871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>18</v>
       </c>
@@ -4906,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>18</v>
       </c>
@@ -4914,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>16</v>
       </c>
@@ -4922,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>21</v>
       </c>
@@ -4930,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>26</v>
       </c>
@@ -4938,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>23</v>
       </c>
@@ -4946,7 +2919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>19</v>
       </c>
@@ -4954,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>20</v>
       </c>
@@ -4962,7 +2935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>22</v>
       </c>
@@ -4970,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>20</v>
       </c>
@@ -4978,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>20</v>
       </c>
@@ -4986,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>23</v>
       </c>
@@ -4994,7 +2967,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>16</v>
       </c>
@@ -5002,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>16</v>
       </c>
@@ -5010,7 +2983,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>18</v>
       </c>
@@ -5018,7 +2991,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>18</v>
       </c>
@@ -5026,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>14</v>
       </c>
@@ -5034,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>14</v>
       </c>
@@ -5042,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>16</v>
       </c>
@@ -5050,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>22</v>
       </c>
@@ -5058,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>22</v>
       </c>
@@ -5066,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>25</v>
       </c>
@@ -5074,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>24</v>
       </c>
@@ -5082,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>24</v>
       </c>
@@ -5090,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>28</v>
       </c>
@@ -5098,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>28</v>
       </c>
@@ -5106,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>24</v>
       </c>
@@ -5114,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>24</v>
       </c>
@@ -5122,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>26</v>
       </c>
@@ -5130,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>32</v>
       </c>
@@ -5138,7 +3111,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>31</v>
       </c>
@@ -5146,7 +3119,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>33</v>
       </c>
@@ -5154,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>31</v>
       </c>
@@ -5162,7 +3135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>22</v>
       </c>
@@ -5170,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>24</v>
       </c>
@@ -5178,7 +3151,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>22</v>
       </c>
@@ -5186,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>19</v>
       </c>
@@ -5194,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>18</v>
       </c>
@@ -5202,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>18</v>
       </c>
@@ -5210,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>18</v>
       </c>
@@ -5218,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>19</v>
       </c>
@@ -5226,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>21</v>
       </c>
@@ -5234,7 +3207,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>18</v>
       </c>
@@ -5242,7 +3215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>19</v>
       </c>
@@ -5250,7 +3223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>23</v>
       </c>
@@ -5258,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>17</v>
       </c>
@@ -5266,7 +3239,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>16</v>
       </c>
@@ -5274,7 +3247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>22</v>
       </c>
@@ -5282,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>26</v>
       </c>
@@ -5290,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>27</v>
       </c>
@@ -5298,7 +3271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>18</v>
       </c>
@@ -5306,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>17</v>
       </c>
@@ -5314,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>16</v>
       </c>
@@ -5322,7 +3295,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>15</v>
       </c>
@@ -5330,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>12</v>
       </c>
@@ -5338,7 +3311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>13</v>
       </c>
@@ -5346,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>11</v>
       </c>
@@ -5354,7 +3327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>11</v>
       </c>
@@ -5362,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>12</v>
       </c>
@@ -5370,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>16</v>
       </c>
@@ -5378,7 +3351,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>18</v>
       </c>
@@ -5386,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>18</v>
       </c>
@@ -5394,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>19</v>
       </c>
@@ -5402,7 +3375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>16</v>
       </c>
@@ -5410,7 +3383,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>18</v>
       </c>
@@ -5418,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>22</v>
       </c>
@@ -5426,7 +3399,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>16</v>
       </c>
@@ -5434,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>15</v>
       </c>
@@ -5442,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>14</v>
       </c>
@@ -5450,7 +3423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>12</v>
       </c>
@@ -5458,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>13</v>
       </c>
@@ -5466,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>15</v>
       </c>
@@ -5474,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>15</v>
       </c>
@@ -5482,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>14</v>
       </c>
@@ -5490,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>12</v>
       </c>
@@ -5498,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>11</v>
       </c>
@@ -5506,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>10</v>
       </c>
@@ -5514,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>10</v>
       </c>
@@ -5522,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>10</v>
       </c>
@@ -5539,1495 +3512,3522 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826A077F-4255-412B-8099-70E9BF4AF16E}">
-  <dimension ref="A1:B184"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6ED1BA2-B61F-4D47-8412-93E5C7D1F203}">
+  <dimension ref="A1:E184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="3">
+        <v>42095</v>
+      </c>
+      <c r="D2">
+        <f>B2*700</f>
+        <v>1400</v>
+      </c>
+      <c r="E2">
+        <f>0.0003*A2^1.5*0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="3">
+        <v>42096</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">B3*700</f>
+        <v>4200</v>
+      </c>
+      <c r="E3">
+        <f>0.0003*A3^1.5*D2</f>
+        <v>1.1879393923933996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="3">
+        <v>42097</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E67" si="1">0.0003*A4^1.5*D3</f>
+        <v>10.079999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="3">
+        <v>42098</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.6799999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="3">
+        <v>42099</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.87295360701471403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="3">
+        <v>42100</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" s="3">
+        <v>42101</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" s="3">
+        <v>42102</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>4.7517575695735959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" s="3">
+        <v>42103</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3.0863570759068049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" s="3">
+        <v>42104</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" s="3">
+        <v>42105</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>17.459072140294289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" s="3">
+        <v>42106</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>19.922349259060795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" s="3">
+        <v>42107</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>9.5035151391471917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" s="3">
+        <v>42108</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>3.0863570759068049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="3">
+        <v>42109</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" s="3">
+        <v>42110</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" s="3">
+        <v>42111</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" s="3">
+        <v>42112</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" s="3">
+        <v>42113</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" s="3">
+        <v>42114</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
       <c r="B22">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" s="3">
+        <v>42115</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>2240</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>7.6614032657209741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
       <c r="B23">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" s="3">
+        <v>42116</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>15.205624222635507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24" s="3">
+        <v>42117</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>16.855087184586147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25" s="3">
+        <v>42118</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>8.7295360701471445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26" s="3">
+        <v>42119</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>11.000472717115382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>16</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27" s="3">
+        <v>42120</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>13.439999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>16</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28" s="3">
+        <v>42121</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29" s="3">
+        <v>42122</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>3.0863570759068049</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30" s="3">
+        <v>42123</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>7.7785088545298935</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31" s="3">
+        <v>42124</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32" s="3">
+        <v>42125</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33" s="3">
+        <v>42126</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>15.557017709059787</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34" s="3">
+        <v>42127</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>28.349999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
       <c r="B35">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35" s="3">
+        <v>42128</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>48.799590162213441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>18</v>
       </c>
       <c r="B36">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36" s="3">
+        <v>42129</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>6.4148727189243546</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37" s="3">
+        <v>42130</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>5.3759999999999977</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>14</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38" s="3">
+        <v>42131</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39" s="3">
+        <v>42132</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14</v>
       </c>
       <c r="B40">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40" s="3">
+        <v>42133</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
       <c r="B41">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C41" s="3">
+        <v>42134</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>2.6188608210441431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C42" s="3">
+        <v>42135</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0.76614032657209741</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>16</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C43" s="3">
+        <v>42136</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C44" s="3">
+        <v>42137</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>26.188608210441433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C45" s="3">
+        <v>42138</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C46" s="3">
+        <v>42139</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
       <c r="B47">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C47" s="3">
+        <v>42140</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
       <c r="B48">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C48" s="3">
+        <v>42141</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>1959.9999999999998</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>13.790525878297753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
       <c r="B49">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C49" s="3">
+        <v>42142</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>24.442700996412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>16</v>
       </c>
       <c r="B50">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C50" s="3">
+        <v>42143</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>25.535999999999987</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>13</v>
       </c>
       <c r="B51">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C51" s="3">
+        <v>42144</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1609.9999999999998</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>21.654940960436726</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11</v>
       </c>
       <c r="B52">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C52" s="3">
+        <v>42145</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>3780.0000000000005</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>17.621227511158239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12</v>
       </c>
       <c r="B53">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C53" s="3">
+        <v>42146</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>3850</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>47.139494778794585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
       <c r="B54">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C54" s="3">
+        <v>42147</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>3640</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>48.012448385809293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>14</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C55" s="3">
+        <v>42148</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>57.202458128999986</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C56" s="3">
+        <v>42149</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>36.599692621660076</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>14</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C57" s="3">
+        <v>42150</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C58" s="3">
+        <v>42151</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12</v>
       </c>
       <c r="B59">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C59" s="3">
+        <v>42152</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>14</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C60" s="3">
+        <v>42153</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>1.1000472717115382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>13</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C61" s="3">
+        <v>42154</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C62" s="3">
+        <v>42155</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>18</v>
       </c>
       <c r="B63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C63" s="3">
+        <v>42156</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>18</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C64" s="3">
+        <v>42157</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>64.148727189243544</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>22</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C65" s="3">
+        <v>42158</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>65.00916243115276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>15</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C66" s="3">
+        <v>42159</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>18</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C67" s="3">
+        <v>42160</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="2">B67*700</f>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>22</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C68" s="3">
+        <v>42161</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E131" si="3">0.0003*A68^1.5*D67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>14</v>
       </c>
       <c r="B69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C69" s="3">
+        <v>42162</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>5600</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
       <c r="B70">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C70" s="3">
+        <v>42163</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>4130</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>88.003781736923059</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C71" s="3">
+        <v>42164</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>51.504262813868152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>16</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C72" s="3">
+        <v>42165</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>67.199999999999974</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>16</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C73" s="3">
+        <v>42166</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>18</v>
       </c>
       <c r="B74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C74" s="3">
+        <v>42167</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>19</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C75" s="3">
+        <v>42168</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>86.960033923636402</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>22</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C76" s="3">
+        <v>42169</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>21.669720810384252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C77" s="3">
+        <v>42170</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C78" s="3">
+        <v>42171</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>14</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C79" s="3">
+        <v>42172</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>16</v>
       </c>
       <c r="B80">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C80" s="3">
+        <v>42173</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>12</v>
       </c>
       <c r="B81">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C81" s="3">
+        <v>42174</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>2.6188608210441431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>13</v>
       </c>
       <c r="B82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C82" s="3">
+        <v>42175</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>29.529464946050073</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>12</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C83" s="3">
+        <v>42176</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>17.459072140294289</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>12</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C84" s="3">
+        <v>42177</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>13</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C85" s="3">
+        <v>42178</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="3"/>
+        <v>29.529464946050073</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>12</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C86" s="3">
+        <v>42179</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="3"/>
+        <v>26.188608210441433</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>16</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C87" s="3">
+        <v>42180</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>16</v>
       </c>
       <c r="B88">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C88" s="3">
+        <v>42181</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>4900</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>18</v>
       </c>
       <c r="B89">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C89" s="3">
+        <v>42182</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>4200</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="3"/>
+        <v>112.2602725811762</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>16</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C90" s="3">
+        <v>42183</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="3"/>
+        <v>80.639999999999958</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>16</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C91" s="3">
+        <v>42184</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>19</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C92" s="3">
+        <v>42185</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>18</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C93" s="3">
+        <v>42186</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C94" s="3">
+        <v>42187</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>22</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C95" s="3">
+        <v>42188</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>25</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C96" s="3">
+        <v>42189</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>26</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C97" s="3">
+        <v>42190</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>22</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C98" s="3">
+        <v>42191</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>22</v>
       </c>
       <c r="B99">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C99" s="3">
+        <v>42192</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20</v>
       </c>
       <c r="B100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C100" s="3">
+        <v>42193</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="3"/>
+        <v>338.09347819796818</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>16</v>
       </c>
       <c r="B101">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C101" s="3">
+        <v>42194</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="3"/>
+        <v>40.319999999999979</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>13</v>
       </c>
       <c r="B102">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C102" s="3">
+        <v>42195</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="2"/>
+        <v>8540</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="3"/>
+        <v>1.9686309964033382</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>16</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C103" s="3">
+        <v>42196</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="3"/>
+        <v>163.96799999999993</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>18</v>
       </c>
       <c r="B104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C104" s="3">
+        <v>42197</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>18</v>
       </c>
       <c r="B105">
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C105" s="3">
+        <v>42198</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="2"/>
+        <v>8400</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="3"/>
+        <v>32.074363594621772</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>18</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C106" s="3">
+        <v>42199</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="3"/>
+        <v>192.44618156773063</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>18</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C107" s="3">
+        <v>42200</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>16</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C108" s="3">
+        <v>42201</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>21</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C109" s="3">
+        <v>42202</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>26</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C110" s="3">
+        <v>42203</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>23</v>
       </c>
       <c r="B111">
         <v>18</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C111" s="3">
+        <v>42204</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>19</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C112" s="3">
+        <v>42205</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="3"/>
+        <v>313.05612212509101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>20</v>
       </c>
       <c r="B113">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C113" s="3">
+        <v>42206</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="2"/>
+        <v>4200</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>22</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C114" s="3">
+        <v>42207</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="3"/>
+        <v>130.01832486230552</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>20</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C115" s="3">
+        <v>42208</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>20</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C116" s="3">
+        <v>42209</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>23</v>
       </c>
       <c r="B117">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C117" s="3">
+        <v>42210</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>16</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C118" s="3">
+        <v>42211</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="3"/>
+        <v>1.3439999999999994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>16</v>
       </c>
       <c r="B119">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C119" s="3">
+        <v>42212</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>18</v>
       </c>
       <c r="B120">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C120" s="3">
+        <v>42213</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="3"/>
+        <v>1.6037181797310887</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>18</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C121" s="3">
+        <v>42214</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="3"/>
+        <v>4.8111545391932653</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>14</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C122" s="3">
+        <v>42215</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>14</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C123" s="3">
+        <v>42216</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>16</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C124" s="3">
+        <v>42217</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>22</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C125" s="3">
+        <v>42218</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>22</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C126" s="3">
+        <v>42219</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>25</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C127" s="3">
+        <v>42220</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>24</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C128" s="3">
+        <v>42221</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>24</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C129" s="3">
+        <v>42222</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>28</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C130" s="3">
+        <v>42223</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>28</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C131" s="3">
+        <v>42224</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D184" si="4">B131*700</f>
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>24</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C132" s="3">
+        <v>42225</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ref="E132:E184" si="5">0.0003*A132^1.5*D131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>24</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C133" s="3">
+        <v>42226</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>26</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C134" s="3">
+        <v>42227</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>32</v>
       </c>
       <c r="B135">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C135" s="3">
+        <v>42228</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>31</v>
       </c>
       <c r="B136">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C136" s="3">
+        <v>42229</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="5"/>
+        <v>21.747687601214075</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>33</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C137" s="3">
+        <v>42230</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="5"/>
+        <v>3.9809819140508544</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>31</v>
       </c>
       <c r="B138">
         <v>12</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C138" s="3">
+        <v>42231</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="4"/>
+        <v>8400</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>22</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C139" s="3">
+        <v>42232</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="5"/>
+        <v>260.03664972461104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>24</v>
       </c>
       <c r="B140">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C140" s="3">
+        <v>42233</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>22</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C141" s="3">
+        <v>42234</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="5"/>
+        <v>4.3339441620768504</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>19</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C142" s="3">
+        <v>42235</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>18</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C143" s="3">
+        <v>42236</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>18</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C144" s="3">
+        <v>42237</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>18</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C145" s="3">
+        <v>42238</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>19</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C146" s="3">
+        <v>42239</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>21</v>
       </c>
       <c r="B147">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C147" s="3">
+        <v>42240</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="4"/>
+        <v>3850</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>18</v>
       </c>
       <c r="B148">
         <v>18</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C148" s="3">
+        <v>42241</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="4"/>
+        <v>12600</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="5"/>
+        <v>88.20449988520987</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>19</v>
       </c>
       <c r="B149">
         <v>12</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C149" s="3">
+        <v>42242</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="4"/>
+        <v>8400</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="5"/>
+        <v>313.05612212509101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>23</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C150" s="3">
+        <v>42243</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="5"/>
+        <v>277.96639509120519</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>17</v>
       </c>
       <c r="B151">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C151" s="3">
+        <v>42244</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>16</v>
       </c>
       <c r="B152">
         <v>14</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C152" s="3">
+        <v>42245</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="4"/>
+        <v>9800</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="5"/>
+        <v>1.3439999999999994</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>22</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C153" s="3">
+        <v>42246</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="5"/>
+        <v>303.37609134537951</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>26</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C154" s="3">
+        <v>42247</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>27</v>
       </c>
       <c r="B155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C155" s="3">
+        <v>42248</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="4"/>
+        <v>1400</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>18</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C156" s="3">
+        <v>42249</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="5"/>
+        <v>32.074363594621772</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>17</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C157" s="3">
+        <v>42250</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>16</v>
       </c>
       <c r="B158">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C158" s="3">
+        <v>42251</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>15</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C159" s="3">
+        <v>42252</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="5"/>
+        <v>1.2199897540553359</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>12</v>
       </c>
       <c r="B160">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C160" s="3">
+        <v>42253</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="4"/>
+        <v>2800</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>13</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C161" s="3">
+        <v>42254</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="5"/>
+        <v>39.372619928066769</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>11</v>
       </c>
       <c r="B162">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C162" s="3">
+        <v>42255</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="4"/>
+        <v>2800</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>11</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C163" s="3">
+        <v>42256</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="5"/>
+        <v>30.645613062883896</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>12</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C164" s="3">
+        <v>42257</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>16</v>
       </c>
       <c r="B165">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C165" s="3">
+        <v>42258</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>18</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C166" s="3">
+        <v>42259</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="5"/>
+        <v>1.6037181797310887</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>18</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C167" s="3">
+        <v>42260</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>19</v>
       </c>
       <c r="B168">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C168" s="3">
+        <v>42261</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="4"/>
+        <v>2100</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>16</v>
       </c>
       <c r="B169">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C169" s="3">
+        <v>42262</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="5"/>
+        <v>40.319999999999979</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>18</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C170" s="3">
+        <v>42263</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="5"/>
+        <v>1.6037181797310887</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>22</v>
       </c>
       <c r="B171">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C171" s="3">
+        <v>42264</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>16</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C172" s="3">
+        <v>42265</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="5"/>
+        <v>6.7199999999999971</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>15</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C173" s="3">
+        <v>42266</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>14</v>
       </c>
       <c r="B174">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C174" s="3">
+        <v>42267</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="4"/>
+        <v>1400</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>12</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C175" s="3">
+        <v>42268</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="5"/>
+        <v>17.459072140294289</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>13</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C176" s="3">
+        <v>42269</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>15</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C177" s="3">
+        <v>42270</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>15</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C178" s="3">
+        <v>42271</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>14</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C179" s="3">
+        <v>42272</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>12</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C180" s="3">
+        <v>42273</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>11</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C181" s="3">
+        <v>42274</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>10</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C182" s="3">
+        <v>42275</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>10</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C183" s="3">
+        <v>42276</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>10</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
+      <c r="C184" s="3">
+        <v>42277</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Arkusze/Arkusz02/zadanie5.xlsx
+++ b/Arkusze/Arkusz02/zadanie5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projekty\cpp\KorkiCPP\Arkusze\Arkusz02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maks\Documents\GitHub\KorkiCPP\Arkusze\Arkusz02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DE2383-9BB0-4B7A-8169-56CD2ADF2671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D520932-7AD8-4396-B8F5-69763FB34AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dane" sheetId="2" r:id="rId1"/>
@@ -225,7 +225,7 @@
     <tableColumn id="2" xr3:uid="{5B8F1966-6498-4830-830D-7DF843B0A378}" name="opady" totalsRowFunction="sum"/>
     <tableColumn id="5" xr3:uid="{02D86EB1-6D10-45CC-855F-B3251573B44F}" name="Data"/>
     <tableColumn id="6" xr3:uid="{BD30AA74-1401-40E5-B4EF-189DD1101573}" name="Ile wody było uzupelnione? (W litrach)">
-      <calculatedColumnFormula>B2*700</calculatedColumnFormula>
+      <calculatedColumnFormula>700*B2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{9653E61B-BB77-42FF-A0FA-F727CA2205F8}" name="Illosc wody utraconej przez parowanie (W litrach)"/>
   </tableColumns>
@@ -498,17 +498,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826A077F-4255-412B-8099-70E9BF4AF16E}">
   <dimension ref="A1:B184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4</v>
       </c>
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -532,7 +532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -548,7 +548,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -604,7 +604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>8</v>
       </c>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>6</v>
       </c>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>10</v>
       </c>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6</v>
       </c>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4</v>
       </c>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>7</v>
       </c>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>10</v>
       </c>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>11</v>
       </c>
@@ -684,7 +684,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>8</v>
       </c>
@@ -692,7 +692,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>11</v>
       </c>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>12</v>
       </c>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>14</v>
       </c>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>16</v>
       </c>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>16</v>
       </c>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>6</v>
       </c>
@@ -740,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>7</v>
       </c>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10</v>
       </c>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>10</v>
       </c>
@@ -764,7 +764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>7</v>
       </c>
@@ -772,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>15</v>
       </c>
@@ -788,7 +788,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>18</v>
       </c>
@@ -796,7 +796,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>16</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>14</v>
       </c>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>10</v>
       </c>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>14</v>
       </c>
@@ -828,7 +828,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>12</v>
       </c>
@@ -836,7 +836,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>11</v>
       </c>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>16</v>
       </c>
@@ -852,7 +852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>12</v>
       </c>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>10</v>
       </c>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>12</v>
       </c>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>10</v>
       </c>
@@ -884,7 +884,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>11</v>
       </c>
@@ -892,7 +892,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>12</v>
       </c>
@@ -900,7 +900,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>16</v>
       </c>
@@ -908,7 +908,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>13</v>
       </c>
@@ -916,7 +916,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>11</v>
       </c>
@@ -924,7 +924,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>12</v>
       </c>
@@ -932,7 +932,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>12</v>
       </c>
@@ -940,7 +940,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>14</v>
       </c>
@@ -948,7 +948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>15</v>
       </c>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>14</v>
       </c>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>10</v>
       </c>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>12</v>
       </c>
@@ -980,7 +980,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>14</v>
       </c>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>13</v>
       </c>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>12</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>18</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>18</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>22</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>15</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>18</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>22</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>14</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>14</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>12</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>16</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>16</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>18</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>19</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>22</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>16</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>12</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>14</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>16</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>12</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>13</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>12</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>12</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>13</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>12</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>16</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>16</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>18</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>16</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>16</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>19</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>18</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>20</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>22</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>25</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>26</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>22</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>22</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>20</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>16</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>13</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>16</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>18</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>18</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>18</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>18</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>16</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>21</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>26</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>23</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>19</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>20</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>22</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>20</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>20</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>23</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>16</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>16</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>18</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>18</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>14</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>14</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>16</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>22</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>22</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>25</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>24</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>24</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>28</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>28</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>24</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>24</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>26</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>32</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>31</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>33</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>31</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>22</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>24</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>22</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>19</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>18</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>18</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>18</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>19</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>21</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>18</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>19</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>23</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>17</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>16</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>22</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>26</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>27</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>18</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>17</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>16</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>15</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>12</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>13</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>11</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>11</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>12</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>16</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>18</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>18</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>19</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>16</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>18</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>22</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>16</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>15</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>14</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>12</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>13</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>15</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>15</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>14</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>12</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>11</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>10</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>10</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>10</v>
       </c>
@@ -1996,17 +1996,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" customWidth="1"/>
+    <col min="7" max="7" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>8</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>10</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>7</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>10</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>11</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>8</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>11</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>12</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>16</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>16</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>6</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>7</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>10</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>7</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>15</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>18</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>16</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>14</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>10</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>12</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>11</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>16</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>12</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>10</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>12</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>10</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>11</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>12</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>16</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>13</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>11</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>12</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>12</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>14</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>15</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>14</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>10</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>12</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>14</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>13</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>12</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>18</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>18</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>22</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>15</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>18</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>22</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>14</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>14</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>12</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>16</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>16</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>18</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>19</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>22</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>16</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>12</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>14</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>16</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>12</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>13</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>12</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>12</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>13</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>12</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>16</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>16</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>18</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>16</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>16</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>19</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>18</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>20</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>22</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>25</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>26</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>22</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>22</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>20</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>16</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>13</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>16</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>18</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>18</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>18</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>18</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>16</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>21</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>26</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>23</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>19</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>20</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>22</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>20</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>20</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>23</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>16</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>16</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>18</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>18</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>14</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>14</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>16</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>22</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>22</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>25</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>24</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>24</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>28</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>28</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>24</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>24</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>26</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>32</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>31</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>33</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>31</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>22</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>24</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>22</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>19</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>18</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>18</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>18</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>19</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>21</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>18</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>19</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>23</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>17</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>16</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>22</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>26</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>27</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>18</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>17</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>16</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>15</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>12</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>13</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>11</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>11</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>12</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>16</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>18</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>18</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>19</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>16</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>18</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>22</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>16</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>15</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>14</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>12</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>13</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>15</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>15</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>14</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>12</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>11</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>10</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>10</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>10</v>
       </c>
@@ -3513,22 +3513,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6ED1BA2-B61F-4D47-8412-93E5C7D1F203}">
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="42.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4</v>
       </c>
@@ -3556,15 +3556,19 @@
         <v>42095</v>
       </c>
       <c r="D2">
-        <f>B2*700</f>
+        <f>700*B2</f>
         <v>1400</v>
       </c>
       <c r="E2">
-        <f>0.0003*A2^1.5*0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A2^1.5*25000</f>
+        <v>59.999999999999986</v>
+      </c>
+      <c r="G2">
+        <f>SUM(D:D)</f>
+        <v>201600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3575,7 +3579,7 @@
         <v>42096</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">B3*700</f>
+        <f t="shared" ref="D3:D66" si="0">700*B3</f>
         <v>4200</v>
       </c>
       <c r="E3">
@@ -3583,7 +3587,7 @@
         <v>1.1879393923933996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3598,11 +3602,11 @@
         <v>700</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="1">0.0003*A4^1.5*D3</f>
+        <f>0.0003*A4^1.5*D3</f>
         <v>10.079999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3617,11 +3621,11 @@
         <v>560</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f>0.0003*A5^1.5*D4</f>
         <v>1.6799999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3636,11 +3640,11 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f>0.0003*A6^1.5*D5</f>
         <v>0.87295360701471403</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3655,11 +3659,11 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A7^1.5*D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3674,11 +3678,11 @@
         <v>700</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A8^1.5*D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3693,11 +3697,11 @@
         <v>700</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f>0.0003*A9^1.5*D8</f>
         <v>4.7517575695735959</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3712,11 +3716,11 @@
         <v>1400</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f>0.0003*A10^1.5*D9</f>
         <v>3.0863570759068049</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3731,11 +3735,11 @@
         <v>1400</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f>0.0003*A11^1.5*D10</f>
         <v>11.34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3750,11 +3754,11 @@
         <v>2100</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f>0.0003*A12^1.5*D11</f>
         <v>17.459072140294289</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3769,11 +3773,11 @@
         <v>1400</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f>0.0003*A13^1.5*D12</f>
         <v>19.922349259060795</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>8</v>
       </c>
@@ -3788,11 +3792,11 @@
         <v>700</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f>0.0003*A14^1.5*D13</f>
         <v>9.5035151391471917</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>6</v>
       </c>
@@ -3807,11 +3811,11 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f>0.0003*A15^1.5*D14</f>
         <v>3.0863570759068049</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3826,11 +3830,11 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A16^1.5*D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>10</v>
       </c>
@@ -3845,11 +3849,11 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A17^1.5*D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6</v>
       </c>
@@ -3864,11 +3868,11 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A18^1.5*D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4</v>
       </c>
@@ -3883,11 +3887,11 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A19^1.5*D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>7</v>
       </c>
@@ -3902,11 +3906,11 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A20^1.5*D19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>10</v>
       </c>
@@ -3921,11 +3925,11 @@
         <v>700</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A21^1.5*D20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>11</v>
       </c>
@@ -3940,11 +3944,11 @@
         <v>2240</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f>0.0003*A22^1.5*D21</f>
         <v>7.6614032657209741</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>8</v>
       </c>
@@ -3959,11 +3963,11 @@
         <v>1540.0000000000002</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f>0.0003*A23^1.5*D22</f>
         <v>15.205624222635507</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>11</v>
       </c>
@@ -3978,11 +3982,11 @@
         <v>700</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f>0.0003*A24^1.5*D23</f>
         <v>16.855087184586147</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>12</v>
       </c>
@@ -3997,11 +4001,11 @@
         <v>700</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f>0.0003*A25^1.5*D24</f>
         <v>8.7295360701471445</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>14</v>
       </c>
@@ -4016,11 +4020,11 @@
         <v>700</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f>0.0003*A26^1.5*D25</f>
         <v>11.000472717115382</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>16</v>
       </c>
@@ -4035,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f>0.0003*A27^1.5*D26</f>
         <v>13.439999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>16</v>
       </c>
@@ -4054,11 +4058,11 @@
         <v>700</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A28^1.5*D27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>6</v>
       </c>
@@ -4073,11 +4077,11 @@
         <v>1400</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f>0.0003*A29^1.5*D28</f>
         <v>3.0863570759068049</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>7</v>
       </c>
@@ -4092,11 +4096,11 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f>0.0003*A30^1.5*D29</f>
         <v>7.7785088545298935</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10</v>
       </c>
@@ -4111,11 +4115,11 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A31^1.5*D30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>10</v>
       </c>
@@ -4130,11 +4134,11 @@
         <v>2800</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A32^1.5*D31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>7</v>
       </c>
@@ -4149,11 +4153,11 @@
         <v>3500</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f>0.0003*A33^1.5*D32</f>
         <v>15.557017709059787</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>
@@ -4168,11 +4172,11 @@
         <v>2800</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f>0.0003*A34^1.5*D33</f>
         <v>28.349999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>15</v>
       </c>
@@ -4187,11 +4191,11 @@
         <v>280</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f>0.0003*A35^1.5*D34</f>
         <v>48.799590162213441</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>18</v>
       </c>
@@ -4206,11 +4210,11 @@
         <v>280</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f>0.0003*A36^1.5*D35</f>
         <v>6.4148727189243546</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>16</v>
       </c>
@@ -4225,11 +4229,11 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f>0.0003*A37^1.5*D36</f>
         <v>5.3759999999999977</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>14</v>
       </c>
@@ -4244,11 +4248,11 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A38^1.5*D37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>10</v>
       </c>
@@ -4263,11 +4267,11 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A39^1.5*D38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>14</v>
       </c>
@@ -4282,11 +4286,11 @@
         <v>210</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A40^1.5*D39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>12</v>
       </c>
@@ -4301,11 +4305,11 @@
         <v>70</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f>0.0003*A41^1.5*D40</f>
         <v>2.6188608210441431</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>11</v>
       </c>
@@ -4320,11 +4324,11 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f>0.0003*A42^1.5*D41</f>
         <v>0.76614032657209741</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>16</v>
       </c>
@@ -4339,11 +4343,11 @@
         <v>2100</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A43^1.5*D42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>12</v>
       </c>
@@ -4358,11 +4362,11 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f>0.0003*A44^1.5*D43</f>
         <v>26.188608210441433</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>10</v>
       </c>
@@ -4377,11 +4381,11 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A45^1.5*D44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>12</v>
       </c>
@@ -4396,11 +4400,11 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A46^1.5*D45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>10</v>
       </c>
@@ -4415,11 +4419,11 @@
         <v>1260</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A47^1.5*D46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>11</v>
       </c>
@@ -4434,11 +4438,11 @@
         <v>1959.9999999999998</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f>0.0003*A48^1.5*D47</f>
         <v>13.790525878297753</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>12</v>
       </c>
@@ -4453,11 +4457,11 @@
         <v>1330</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f>0.0003*A49^1.5*D48</f>
         <v>24.442700996412</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>16</v>
       </c>
@@ -4472,11 +4476,11 @@
         <v>1540.0000000000002</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f>0.0003*A50^1.5*D49</f>
         <v>25.535999999999987</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>13</v>
       </c>
@@ -4491,11 +4495,11 @@
         <v>1609.9999999999998</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f>0.0003*A51^1.5*D50</f>
         <v>21.654940960436726</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>11</v>
       </c>
@@ -4510,11 +4514,11 @@
         <v>3780.0000000000005</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f>0.0003*A52^1.5*D51</f>
         <v>17.621227511158239</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>12</v>
       </c>
@@ -4529,11 +4533,11 @@
         <v>3850</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f>0.0003*A53^1.5*D52</f>
         <v>47.139494778794585</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>12</v>
       </c>
@@ -4548,11 +4552,11 @@
         <v>3640</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f>0.0003*A54^1.5*D53</f>
         <v>48.012448385809293</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>14</v>
       </c>
@@ -4567,11 +4571,11 @@
         <v>2100</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f>0.0003*A55^1.5*D54</f>
         <v>57.202458128999986</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>15</v>
       </c>
@@ -4586,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f>0.0003*A56^1.5*D55</f>
         <v>36.599692621660076</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>14</v>
       </c>
@@ -4605,11 +4609,11 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A57^1.5*D56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>10</v>
       </c>
@@ -4624,11 +4628,11 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A58^1.5*D57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>12</v>
       </c>
@@ -4643,11 +4647,11 @@
         <v>70</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A59^1.5*D58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>14</v>
       </c>
@@ -4662,11 +4666,11 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f>0.0003*A60^1.5*D59</f>
         <v>1.1000472717115382</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>13</v>
       </c>
@@ -4681,11 +4685,11 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A61^1.5*D60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>12</v>
       </c>
@@ -4700,11 +4704,11 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A62^1.5*D61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>18</v>
       </c>
@@ -4719,11 +4723,11 @@
         <v>2800</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A63^1.5*D62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>18</v>
       </c>
@@ -4738,11 +4742,11 @@
         <v>2100</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f>0.0003*A64^1.5*D63</f>
         <v>64.148727189243544</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>22</v>
       </c>
@@ -4757,11 +4761,11 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f>0.0003*A65^1.5*D64</f>
         <v>65.00916243115276</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>15</v>
       </c>
@@ -4776,11 +4780,11 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A66^1.5*D65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>18</v>
       </c>
@@ -4791,15 +4795,15 @@
         <v>42160</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="2">B67*700</f>
+        <f t="shared" ref="D67:D130" si="1">700*B67</f>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A67^1.5*D66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>22</v>
       </c>
@@ -4810,15 +4814,15 @@
         <v>42161</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E131" si="3">0.0003*A68^1.5*D67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A68^1.5*D67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>14</v>
       </c>
@@ -4829,15 +4833,15 @@
         <v>42162</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5600</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A69^1.5*D68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>14</v>
       </c>
@@ -4848,15 +4852,15 @@
         <v>42163</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4130</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f>0.0003*A70^1.5*D69</f>
         <v>88.003781736923059</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>12</v>
       </c>
@@ -4867,15 +4871,15 @@
         <v>42164</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3500</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f>0.0003*A71^1.5*D70</f>
         <v>51.504262813868152</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>16</v>
       </c>
@@ -4886,15 +4890,15 @@
         <v>42165</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
+        <f>0.0003*A72^1.5*D71</f>
         <v>67.199999999999974</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>16</v>
       </c>
@@ -4905,15 +4909,15 @@
         <v>42166</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A73^1.5*D72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>18</v>
       </c>
@@ -4924,15 +4928,15 @@
         <v>42167</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3500</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A74^1.5*D73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>19</v>
       </c>
@@ -4943,15 +4947,15 @@
         <v>42168</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
+        <f>0.0003*A75^1.5*D74</f>
         <v>86.960033923636402</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>22</v>
       </c>
@@ -4962,15 +4966,15 @@
         <v>42169</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
+        <f>0.0003*A76^1.5*D75</f>
         <v>21.669720810384252</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>16</v>
       </c>
@@ -4981,15 +4985,15 @@
         <v>42170</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A77^1.5*D76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>12</v>
       </c>
@@ -5000,15 +5004,15 @@
         <v>42171</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A78^1.5*D77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>14</v>
       </c>
@@ -5019,15 +5023,15 @@
         <v>42172</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A79^1.5*D78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>16</v>
       </c>
@@ -5038,15 +5042,15 @@
         <v>42173</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A80^1.5*D79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>12</v>
       </c>
@@ -5057,1782 +5061,1782 @@
         <v>42174</v>
       </c>
       <c r="D81">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="E81">
+        <f>0.0003*A81^1.5*D80</f>
+        <v>2.6188608210441431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>13</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" s="3">
+        <v>42175</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="E82">
+        <f>0.0003*A82^1.5*D81</f>
+        <v>29.529464946050073</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>12</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3">
+        <v>42176</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f>0.0003*A83^1.5*D82</f>
+        <v>17.459072140294289</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>12</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" s="3">
+        <v>42177</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="E84">
+        <f>0.0003*A84^1.5*D83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>13</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" s="3">
+        <v>42178</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="E85">
+        <f>0.0003*A85^1.5*D84</f>
+        <v>29.529464946050073</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>12</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" s="3">
+        <v>42179</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f>0.0003*A86^1.5*D85</f>
+        <v>26.188608210441433</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>16</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" s="3">
+        <v>42180</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <f>0.0003*A87^1.5*D86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>16</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88" s="3">
+        <v>42181</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>4900</v>
+      </c>
+      <c r="E88">
+        <f>0.0003*A88^1.5*D87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>18</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89" s="3">
+        <v>42182</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+      <c r="E89">
+        <f>0.0003*A89^1.5*D88</f>
+        <v>112.2602725811762</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>16</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3">
+        <v>42183</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f>0.0003*A90^1.5*D89</f>
+        <v>80.639999999999958</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>16</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" s="3">
+        <v>42184</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f>0.0003*A91^1.5*D90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>19</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3">
+        <v>42185</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <f>0.0003*A92^1.5*D91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>18</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" s="3">
+        <v>42186</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <f>0.0003*A93^1.5*D92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>20</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" s="3">
+        <v>42187</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <f>0.0003*A94^1.5*D93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>22</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" s="3">
+        <v>42188</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <f>0.0003*A95^1.5*D94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>25</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" s="3">
+        <v>42189</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <f>0.0003*A96^1.5*D95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>26</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" s="3">
+        <v>42190</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <f>0.0003*A97^1.5*D96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>22</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" s="3">
+        <v>42191</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f>0.0003*A98^1.5*D97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>22</v>
+      </c>
+      <c r="B99">
+        <v>18</v>
+      </c>
+      <c r="C99" s="3">
+        <v>42192</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+      <c r="E99">
+        <f>0.0003*A99^1.5*D98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>20</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" s="3">
+        <v>42193</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="E100">
+        <f>0.0003*A100^1.5*D99</f>
+        <v>338.09347819796818</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>16</v>
+      </c>
+      <c r="B101">
+        <v>0.2</v>
+      </c>
+      <c r="C101" s="3">
+        <v>42194</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="E101">
+        <f>0.0003*A101^1.5*D100</f>
+        <v>40.319999999999979</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>13</v>
+      </c>
+      <c r="B102">
+        <v>12.2</v>
+      </c>
+      <c r="C102" s="3">
+        <v>42195</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>8540</v>
+      </c>
+      <c r="E102">
+        <f>0.0003*A102^1.5*D101</f>
+        <v>1.9686309964033382</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>16</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" s="3">
+        <v>42196</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <f>0.0003*A103^1.5*D102</f>
+        <v>163.96799999999993</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>18</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" s="3">
+        <v>42197</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="E104">
+        <f>0.0003*A104^1.5*D103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>18</v>
+      </c>
+      <c r="B105">
+        <v>12</v>
+      </c>
+      <c r="C105" s="3">
+        <v>42198</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>8400</v>
+      </c>
+      <c r="E105">
+        <f>0.0003*A105^1.5*D104</f>
+        <v>32.074363594621772</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>18</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106" s="3">
+        <v>42199</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <f>0.0003*A106^1.5*D105</f>
+        <v>192.44618156773063</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>18</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" s="3">
+        <v>42200</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <f>0.0003*A107^1.5*D106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>16</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" s="3">
+        <v>42201</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <f>0.0003*A108^1.5*D107</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>21</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" s="3">
+        <v>42202</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <f>0.0003*A109^1.5*D108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>26</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" s="3">
+        <v>42203</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <f>0.0003*A110^1.5*D109</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>23</v>
+      </c>
+      <c r="B111">
+        <v>18</v>
+      </c>
+      <c r="C111" s="3">
+        <v>42204</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+      <c r="E111">
+        <f>0.0003*A111^1.5*D110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>19</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" s="3">
+        <v>42205</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <f>0.0003*A112^1.5*D111</f>
+        <v>313.05612212509101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>20</v>
+      </c>
+      <c r="B113">
+        <v>6</v>
+      </c>
+      <c r="C113" s="3">
+        <v>42206</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+      <c r="E113">
+        <f>0.0003*A113^1.5*D112</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>22</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" s="3">
+        <v>42207</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <f>0.0003*A114^1.5*D113</f>
+        <v>130.01832486230552</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>20</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" s="3">
+        <v>42208</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <f>0.0003*A115^1.5*D114</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>20</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116" s="3">
+        <v>42209</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <f>0.0003*A116^1.5*D115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>23</v>
+      </c>
+      <c r="B117">
+        <v>0.1</v>
+      </c>
+      <c r="C117" s="3">
+        <v>42210</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E117">
+        <f>0.0003*A117^1.5*D116</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>16</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" s="3">
+        <v>42211</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <f>0.0003*A118^1.5*D117</f>
+        <v>1.3439999999999994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>16</v>
+      </c>
+      <c r="B119">
+        <v>0.1</v>
+      </c>
+      <c r="C119" s="3">
+        <v>42212</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E119">
+        <f>0.0003*A119^1.5*D118</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>18</v>
+      </c>
+      <c r="B120">
+        <v>0.3</v>
+      </c>
+      <c r="C120" s="3">
+        <v>42213</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="E120">
+        <f>0.0003*A120^1.5*D119</f>
+        <v>1.6037181797310887</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>18</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121" s="3">
+        <v>42214</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <f>0.0003*A121^1.5*D120</f>
+        <v>4.8111545391932653</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>14</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" s="3">
+        <v>42215</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <f>0.0003*A122^1.5*D121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>14</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123" s="3">
+        <v>42216</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <f>0.0003*A123^1.5*D122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>16</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124" s="3">
+        <v>42217</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <f>0.0003*A124^1.5*D123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>22</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125" s="3">
+        <v>42218</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <f>0.0003*A125^1.5*D124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>22</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126" s="3">
+        <v>42219</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <f>0.0003*A126^1.5*D125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>25</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127" s="3">
+        <v>42220</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <f>0.0003*A127^1.5*D126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>24</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128" s="3">
+        <v>42221</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <f>0.0003*A128^1.5*D127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>24</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129" s="3">
+        <v>42222</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <f>0.0003*A129^1.5*D128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>28</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130" s="3">
+        <v>42223</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <f>0.0003*A130^1.5*D129</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>28</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131" s="3">
+        <v>42224</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D184" si="2">700*B131</f>
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <f>0.0003*A131^1.5*D130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>24</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132" s="3">
+        <v>42225</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <f>0.0003*A132^1.5*D131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>24</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133" s="3">
+        <v>42226</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <f>0.0003*A133^1.5*D132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>26</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134" s="3">
+        <v>42227</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <f>0.0003*A134^1.5*D133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>32</v>
+      </c>
+      <c r="B135">
+        <v>0.6</v>
+      </c>
+      <c r="C135" s="3">
+        <v>42228</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="E135">
+        <f>0.0003*A135^1.5*D134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>31</v>
+      </c>
+      <c r="B136">
+        <v>0.1</v>
+      </c>
+      <c r="C136" s="3">
+        <v>42229</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E136">
+        <f>0.0003*A136^1.5*D135</f>
+        <v>21.747687601214075</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>33</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" s="3">
+        <v>42230</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <f>0.0003*A137^1.5*D136</f>
+        <v>3.9809819140508544</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>31</v>
+      </c>
+      <c r="B138">
+        <v>12</v>
+      </c>
+      <c r="C138" s="3">
+        <v>42231</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>8400</v>
+      </c>
+      <c r="E138">
+        <f>0.0003*A138^1.5*D137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>22</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139" s="3">
+        <v>42232</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <f>0.0003*A139^1.5*D138</f>
+        <v>260.03664972461104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>24</v>
+      </c>
+      <c r="B140">
+        <v>0.2</v>
+      </c>
+      <c r="C140" s="3">
+        <v>42233</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="E140">
+        <f>0.0003*A140^1.5*D139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>22</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141" s="3">
+        <v>42234</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <f>0.0003*A141^1.5*D140</f>
+        <v>4.3339441620768504</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>19</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142" s="3">
+        <v>42235</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <f>0.0003*A142^1.5*D141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>18</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143" s="3">
+        <v>42236</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <f>0.0003*A143^1.5*D142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>18</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144" s="3">
+        <v>42237</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <f>0.0003*A144^1.5*D143</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>18</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" s="3">
+        <v>42238</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <f>0.0003*A145^1.5*D144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>19</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" s="3">
+        <v>42239</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <f>0.0003*A146^1.5*D145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>21</v>
+      </c>
+      <c r="B147">
+        <v>5.5</v>
+      </c>
+      <c r="C147" s="3">
+        <v>42240</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="2"/>
+        <v>3850</v>
+      </c>
+      <c r="E147">
+        <f>0.0003*A147^1.5*D146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>18</v>
+      </c>
+      <c r="B148">
+        <v>18</v>
+      </c>
+      <c r="C148" s="3">
+        <v>42241</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+      <c r="E148">
+        <f>0.0003*A148^1.5*D147</f>
+        <v>88.20449988520987</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>19</v>
+      </c>
+      <c r="B149">
+        <v>12</v>
+      </c>
+      <c r="C149" s="3">
+        <v>42242</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="2"/>
+        <v>8400</v>
+      </c>
+      <c r="E149">
+        <f>0.0003*A149^1.5*D148</f>
+        <v>313.05612212509101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>23</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150" s="3">
+        <v>42243</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <f>0.0003*A150^1.5*D149</f>
+        <v>277.96639509120519</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>17</v>
+      </c>
+      <c r="B151">
+        <v>0.1</v>
+      </c>
+      <c r="C151" s="3">
+        <v>42244</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E151">
+        <f>0.0003*A151^1.5*D150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>16</v>
+      </c>
+      <c r="B152">
+        <v>14</v>
+      </c>
+      <c r="C152" s="3">
+        <v>42245</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="2"/>
+        <v>9800</v>
+      </c>
+      <c r="E152">
+        <f>0.0003*A152^1.5*D151</f>
+        <v>1.3439999999999994</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>22</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153" s="3">
+        <v>42246</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <f>0.0003*A153^1.5*D152</f>
+        <v>303.37609134537951</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>26</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154" s="3">
+        <v>42247</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <f>0.0003*A154^1.5*D153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>27</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155" s="3">
+        <v>42248</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E155">
+        <f>0.0003*A155^1.5*D154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>18</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156" s="3">
+        <v>42249</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <f>0.0003*A156^1.5*D155</f>
+        <v>32.074363594621772</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>17</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157" s="3">
+        <v>42250</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <f>0.0003*A157^1.5*D156</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>16</v>
+      </c>
+      <c r="B158">
+        <v>0.1</v>
+      </c>
+      <c r="C158" s="3">
+        <v>42251</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E158">
+        <f>0.0003*A158^1.5*D157</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>15</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159" s="3">
+        <v>42252</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <f>0.0003*A159^1.5*D158</f>
+        <v>1.2199897540553359</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>12</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160" s="3">
+        <v>42253</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+      <c r="E160">
+        <f>0.0003*A160^1.5*D159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>13</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161" s="3">
+        <v>42254</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <f>0.0003*A161^1.5*D160</f>
+        <v>39.372619928066769</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>11</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162" s="3">
+        <v>42255</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+      <c r="E162">
+        <f>0.0003*A162^1.5*D161</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>11</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163" s="3">
+        <v>42256</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <f>0.0003*A163^1.5*D162</f>
+        <v>30.645613062883896</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>12</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164" s="3">
+        <v>42257</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <f>0.0003*A164^1.5*D163</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>16</v>
+      </c>
+      <c r="B165">
+        <v>0.1</v>
+      </c>
+      <c r="C165" s="3">
+        <v>42258</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E165">
+        <f>0.0003*A165^1.5*D164</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>18</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166" s="3">
+        <v>42259</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <f>0.0003*A166^1.5*D165</f>
+        <v>1.6037181797310887</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>18</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167" s="3">
+        <v>42260</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <f>0.0003*A167^1.5*D166</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>19</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168" s="3">
+        <v>42261</v>
+      </c>
+      <c r="D168">
         <f t="shared" si="2"/>
         <v>2100</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="3"/>
-        <v>2.6188608210441431</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>13</v>
-      </c>
-      <c r="B82">
+      <c r="E168">
+        <f>0.0003*A168^1.5*D167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>16</v>
+      </c>
+      <c r="B169">
+        <v>0.1</v>
+      </c>
+      <c r="C169" s="3">
+        <v>42262</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E169">
+        <f>0.0003*A169^1.5*D168</f>
+        <v>40.319999999999979</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>18</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170" s="3">
+        <v>42263</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <f>0.0003*A170^1.5*D169</f>
+        <v>1.6037181797310887</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>22</v>
+      </c>
+      <c r="B171">
+        <v>0.5</v>
+      </c>
+      <c r="C171" s="3">
+        <v>42264</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="E171">
+        <f>0.0003*A171^1.5*D170</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>16</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172" s="3">
+        <v>42265</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <f>0.0003*A172^1.5*D171</f>
+        <v>6.7199999999999971</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>15</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173" s="3">
+        <v>42266</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <f>0.0003*A173^1.5*D172</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>14</v>
+      </c>
+      <c r="B174">
         <v>2</v>
       </c>
-      <c r="C82" s="3">
-        <v>42175</v>
-      </c>
-      <c r="D82">
+      <c r="C174" s="3">
+        <v>42267</v>
+      </c>
+      <c r="D174">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="E82">
-        <f t="shared" si="3"/>
-        <v>29.529464946050073</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>12</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83" s="3">
-        <v>42176</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="3"/>
-        <v>17.459072140294289</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>12</v>
-      </c>
-      <c r="B84">
-        <v>3</v>
-      </c>
-      <c r="C84" s="3">
-        <v>42177</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="2"/>
-        <v>2100</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>13</v>
-      </c>
-      <c r="B85">
-        <v>3</v>
-      </c>
-      <c r="C85" s="3">
-        <v>42178</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="2"/>
-        <v>2100</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="3"/>
-        <v>29.529464946050073</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>12</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86" s="3">
-        <v>42179</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="3"/>
-        <v>26.188608210441433</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>16</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87" s="3">
-        <v>42180</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>16</v>
-      </c>
-      <c r="B88">
-        <v>7</v>
-      </c>
-      <c r="C88" s="3">
-        <v>42181</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="2"/>
-        <v>4900</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>18</v>
-      </c>
-      <c r="B89">
-        <v>6</v>
-      </c>
-      <c r="C89" s="3">
-        <v>42182</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="2"/>
-        <v>4200</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="3"/>
-        <v>112.2602725811762</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>16</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90" s="3">
-        <v>42183</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="3"/>
-        <v>80.639999999999958</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>16</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91" s="3">
-        <v>42184</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>19</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92" s="3">
-        <v>42185</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>18</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93" s="3">
-        <v>42186</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>20</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94" s="3">
-        <v>42187</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>22</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95" s="3">
-        <v>42188</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>25</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96" s="3">
-        <v>42189</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>26</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97" s="3">
-        <v>42190</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>22</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98" s="3">
-        <v>42191</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>22</v>
-      </c>
-      <c r="B99">
-        <v>18</v>
-      </c>
-      <c r="C99" s="3">
-        <v>42192</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="2"/>
-        <v>12600</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>20</v>
-      </c>
-      <c r="B100">
-        <v>3</v>
-      </c>
-      <c r="C100" s="3">
-        <v>42193</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="2"/>
-        <v>2100</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="3"/>
-        <v>338.09347819796818</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>16</v>
-      </c>
-      <c r="B101">
-        <v>0.2</v>
-      </c>
-      <c r="C101" s="3">
-        <v>42194</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="3"/>
-        <v>40.319999999999979</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>13</v>
-      </c>
-      <c r="B102">
-        <v>12.2</v>
-      </c>
-      <c r="C102" s="3">
-        <v>42195</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="2"/>
-        <v>8540</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="3"/>
-        <v>1.9686309964033382</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>16</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103" s="3">
-        <v>42196</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="3"/>
-        <v>163.96799999999993</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>18</v>
-      </c>
-      <c r="B104">
-        <v>2</v>
-      </c>
-      <c r="C104" s="3">
-        <v>42197</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="2"/>
-        <v>1400</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>18</v>
-      </c>
-      <c r="B105">
-        <v>12</v>
-      </c>
-      <c r="C105" s="3">
-        <v>42198</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="2"/>
-        <v>8400</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="3"/>
-        <v>32.074363594621772</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>18</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106" s="3">
-        <v>42199</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="3"/>
-        <v>192.44618156773063</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>18</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107" s="3">
-        <v>42200</v>
-      </c>
-      <c r="D107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>16</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108" s="3">
-        <v>42201</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>21</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109" s="3">
-        <v>42202</v>
-      </c>
-      <c r="D109">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>26</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110" s="3">
-        <v>42203</v>
-      </c>
-      <c r="D110">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>23</v>
-      </c>
-      <c r="B111">
-        <v>18</v>
-      </c>
-      <c r="C111" s="3">
-        <v>42204</v>
-      </c>
-      <c r="D111">
-        <f t="shared" si="2"/>
-        <v>12600</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>19</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112" s="3">
-        <v>42205</v>
-      </c>
-      <c r="D112">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="3"/>
-        <v>313.05612212509101</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>20</v>
-      </c>
-      <c r="B113">
-        <v>6</v>
-      </c>
-      <c r="C113" s="3">
-        <v>42206</v>
-      </c>
-      <c r="D113">
-        <f t="shared" si="2"/>
-        <v>4200</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>22</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114" s="3">
-        <v>42207</v>
-      </c>
-      <c r="D114">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="3"/>
-        <v>130.01832486230552</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>20</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115" s="3">
-        <v>42208</v>
-      </c>
-      <c r="D115">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>20</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116" s="3">
-        <v>42209</v>
-      </c>
-      <c r="D116">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>23</v>
-      </c>
-      <c r="B117">
-        <v>0.1</v>
-      </c>
-      <c r="C117" s="3">
-        <v>42210</v>
-      </c>
-      <c r="D117">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>16</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118" s="3">
-        <v>42211</v>
-      </c>
-      <c r="D118">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="3"/>
-        <v>1.3439999999999994</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>16</v>
-      </c>
-      <c r="B119">
-        <v>0.1</v>
-      </c>
-      <c r="C119" s="3">
-        <v>42212</v>
-      </c>
-      <c r="D119">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>18</v>
-      </c>
-      <c r="B120">
-        <v>0.3</v>
-      </c>
-      <c r="C120" s="3">
-        <v>42213</v>
-      </c>
-      <c r="D120">
-        <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="3"/>
-        <v>1.6037181797310887</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>18</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121" s="3">
-        <v>42214</v>
-      </c>
-      <c r="D121">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="3"/>
-        <v>4.8111545391932653</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>14</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122" s="3">
-        <v>42215</v>
-      </c>
-      <c r="D122">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>14</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123" s="3">
-        <v>42216</v>
-      </c>
-      <c r="D123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>16</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124" s="3">
-        <v>42217</v>
-      </c>
-      <c r="D124">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>22</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125" s="3">
-        <v>42218</v>
-      </c>
-      <c r="D125">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>22</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126" s="3">
-        <v>42219</v>
-      </c>
-      <c r="D126">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>25</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127" s="3">
-        <v>42220</v>
-      </c>
-      <c r="D127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>24</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128" s="3">
-        <v>42221</v>
-      </c>
-      <c r="D128">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E128">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>24</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="C129" s="3">
-        <v>42222</v>
-      </c>
-      <c r="D129">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E129">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>28</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="C130" s="3">
-        <v>42223</v>
-      </c>
-      <c r="D130">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>28</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-      <c r="C131" s="3">
-        <v>42224</v>
-      </c>
-      <c r="D131">
-        <f t="shared" ref="D131:D184" si="4">B131*700</f>
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>24</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="C132" s="3">
-        <v>42225</v>
-      </c>
-      <c r="D132">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <f t="shared" ref="E132:E184" si="5">0.0003*A132^1.5*D131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>24</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133" s="3">
-        <v>42226</v>
-      </c>
-      <c r="D133">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>26</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-      <c r="C134" s="3">
-        <v>42227</v>
-      </c>
-      <c r="D134">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>32</v>
-      </c>
-      <c r="B135">
-        <v>0.6</v>
-      </c>
-      <c r="C135" s="3">
-        <v>42228</v>
-      </c>
-      <c r="D135">
-        <f t="shared" si="4"/>
-        <v>420</v>
-      </c>
-      <c r="E135">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>31</v>
-      </c>
-      <c r="B136">
-        <v>0.1</v>
-      </c>
-      <c r="C136" s="3">
-        <v>42229</v>
-      </c>
-      <c r="D136">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="E136">
-        <f t="shared" si="5"/>
-        <v>21.747687601214075</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>33</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137" s="3">
-        <v>42230</v>
-      </c>
-      <c r="D137">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <f t="shared" si="5"/>
-        <v>3.9809819140508544</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>31</v>
-      </c>
-      <c r="B138">
-        <v>12</v>
-      </c>
-      <c r="C138" s="3">
-        <v>42231</v>
-      </c>
-      <c r="D138">
-        <f t="shared" si="4"/>
-        <v>8400</v>
-      </c>
-      <c r="E138">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>22</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139" s="3">
-        <v>42232</v>
-      </c>
-      <c r="D139">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <f t="shared" si="5"/>
-        <v>260.03664972461104</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>24</v>
-      </c>
-      <c r="B140">
-        <v>0.2</v>
-      </c>
-      <c r="C140" s="3">
-        <v>42233</v>
-      </c>
-      <c r="D140">
-        <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="E140">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>22</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141" s="3">
-        <v>42234</v>
-      </c>
-      <c r="D141">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <f t="shared" si="5"/>
-        <v>4.3339441620768504</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>19</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142" s="3">
-        <v>42235</v>
-      </c>
-      <c r="D142">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>18</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="C143" s="3">
-        <v>42236</v>
-      </c>
-      <c r="D143">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>18</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-      <c r="C144" s="3">
-        <v>42237</v>
-      </c>
-      <c r="D144">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>18</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145" s="3">
-        <v>42238</v>
-      </c>
-      <c r="D145">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>19</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-      <c r="C146" s="3">
-        <v>42239</v>
-      </c>
-      <c r="D146">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>21</v>
-      </c>
-      <c r="B147">
-        <v>5.5</v>
-      </c>
-      <c r="C147" s="3">
-        <v>42240</v>
-      </c>
-      <c r="D147">
-        <f t="shared" si="4"/>
-        <v>3850</v>
-      </c>
-      <c r="E147">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>18</v>
-      </c>
-      <c r="B148">
-        <v>18</v>
-      </c>
-      <c r="C148" s="3">
-        <v>42241</v>
-      </c>
-      <c r="D148">
-        <f t="shared" si="4"/>
-        <v>12600</v>
-      </c>
-      <c r="E148">
-        <f t="shared" si="5"/>
-        <v>88.20449988520987</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>19</v>
-      </c>
-      <c r="B149">
-        <v>12</v>
-      </c>
-      <c r="C149" s="3">
-        <v>42242</v>
-      </c>
-      <c r="D149">
-        <f t="shared" si="4"/>
-        <v>8400</v>
-      </c>
-      <c r="E149">
-        <f t="shared" si="5"/>
-        <v>313.05612212509101</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>23</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-      <c r="C150" s="3">
-        <v>42243</v>
-      </c>
-      <c r="D150">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <f t="shared" si="5"/>
-        <v>277.96639509120519</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>17</v>
-      </c>
-      <c r="B151">
-        <v>0.1</v>
-      </c>
-      <c r="C151" s="3">
-        <v>42244</v>
-      </c>
-      <c r="D151">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="E151">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>16</v>
-      </c>
-      <c r="B152">
-        <v>14</v>
-      </c>
-      <c r="C152" s="3">
-        <v>42245</v>
-      </c>
-      <c r="D152">
-        <f t="shared" si="4"/>
-        <v>9800</v>
-      </c>
-      <c r="E152">
-        <f t="shared" si="5"/>
-        <v>1.3439999999999994</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>22</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-      <c r="C153" s="3">
-        <v>42246</v>
-      </c>
-      <c r="D153">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <f t="shared" si="5"/>
-        <v>303.37609134537951</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>26</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-      <c r="C154" s="3">
-        <v>42247</v>
-      </c>
-      <c r="D154">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>27</v>
-      </c>
-      <c r="B155">
-        <v>2</v>
-      </c>
-      <c r="C155" s="3">
-        <v>42248</v>
-      </c>
-      <c r="D155">
-        <f t="shared" si="4"/>
-        <v>1400</v>
-      </c>
-      <c r="E155">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>18</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-      <c r="C156" s="3">
-        <v>42249</v>
-      </c>
-      <c r="D156">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <f t="shared" si="5"/>
-        <v>32.074363594621772</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>17</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-      <c r="C157" s="3">
-        <v>42250</v>
-      </c>
-      <c r="D157">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E157">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>16</v>
-      </c>
-      <c r="B158">
-        <v>0.1</v>
-      </c>
-      <c r="C158" s="3">
-        <v>42251</v>
-      </c>
-      <c r="D158">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="E158">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>15</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="C159" s="3">
-        <v>42252</v>
-      </c>
-      <c r="D159">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E159">
-        <f t="shared" si="5"/>
-        <v>1.2199897540553359</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>12</v>
-      </c>
-      <c r="B160">
-        <v>4</v>
-      </c>
-      <c r="C160" s="3">
-        <v>42253</v>
-      </c>
-      <c r="D160">
-        <f t="shared" si="4"/>
-        <v>2800</v>
-      </c>
-      <c r="E160">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>13</v>
-      </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-      <c r="C161" s="3">
-        <v>42254</v>
-      </c>
-      <c r="D161">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <f t="shared" si="5"/>
-        <v>39.372619928066769</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>11</v>
-      </c>
-      <c r="B162">
-        <v>4</v>
-      </c>
-      <c r="C162" s="3">
-        <v>42255</v>
-      </c>
-      <c r="D162">
-        <f t="shared" si="4"/>
-        <v>2800</v>
-      </c>
-      <c r="E162">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>11</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-      <c r="C163" s="3">
-        <v>42256</v>
-      </c>
-      <c r="D163">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E163">
-        <f t="shared" si="5"/>
-        <v>30.645613062883896</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>12</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-      <c r="C164" s="3">
-        <v>42257</v>
-      </c>
-      <c r="D164">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E164">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>16</v>
-      </c>
-      <c r="B165">
-        <v>0.1</v>
-      </c>
-      <c r="C165" s="3">
-        <v>42258</v>
-      </c>
-      <c r="D165">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="E165">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>18</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="C166" s="3">
-        <v>42259</v>
-      </c>
-      <c r="D166">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E166">
-        <f t="shared" si="5"/>
-        <v>1.6037181797310887</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>18</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-      <c r="C167" s="3">
-        <v>42260</v>
-      </c>
-      <c r="D167">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E167">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>19</v>
-      </c>
-      <c r="B168">
-        <v>3</v>
-      </c>
-      <c r="C168" s="3">
-        <v>42261</v>
-      </c>
-      <c r="D168">
-        <f t="shared" si="4"/>
-        <v>2100</v>
-      </c>
-      <c r="E168">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>16</v>
-      </c>
-      <c r="B169">
-        <v>0.1</v>
-      </c>
-      <c r="C169" s="3">
-        <v>42262</v>
-      </c>
-      <c r="D169">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="E169">
-        <f t="shared" si="5"/>
-        <v>40.319999999999979</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>18</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-      <c r="C170" s="3">
-        <v>42263</v>
-      </c>
-      <c r="D170">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E170">
-        <f t="shared" si="5"/>
-        <v>1.6037181797310887</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>22</v>
-      </c>
-      <c r="B171">
-        <v>0.5</v>
-      </c>
-      <c r="C171" s="3">
-        <v>42264</v>
-      </c>
-      <c r="D171">
-        <f t="shared" si="4"/>
-        <v>350</v>
-      </c>
-      <c r="E171">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>16</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-      <c r="C172" s="3">
-        <v>42265</v>
-      </c>
-      <c r="D172">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E172">
-        <f t="shared" si="5"/>
-        <v>6.7199999999999971</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>15</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="C173" s="3">
-        <v>42266</v>
-      </c>
-      <c r="D173">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>14</v>
-      </c>
-      <c r="B174">
-        <v>2</v>
-      </c>
-      <c r="C174" s="3">
-        <v>42267</v>
-      </c>
-      <c r="D174">
-        <f t="shared" si="4"/>
-        <v>1400</v>
-      </c>
       <c r="E174">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A174^1.5*D173</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>12</v>
       </c>
@@ -6843,15 +6847,15 @@
         <v>42268</v>
       </c>
       <c r="D175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f t="shared" si="5"/>
+        <f>0.0003*A175^1.5*D174</f>
         <v>17.459072140294289</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>13</v>
       </c>
@@ -6862,15 +6866,15 @@
         <v>42269</v>
       </c>
       <c r="D176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A176^1.5*D175</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>15</v>
       </c>
@@ -6881,15 +6885,15 @@
         <v>42270</v>
       </c>
       <c r="D177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E177">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A177^1.5*D176</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>15</v>
       </c>
@@ -6900,15 +6904,15 @@
         <v>42271</v>
       </c>
       <c r="D178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A178^1.5*D177</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>14</v>
       </c>
@@ -6919,15 +6923,15 @@
         <v>42272</v>
       </c>
       <c r="D179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E179">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A179^1.5*D178</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>12</v>
       </c>
@@ -6938,15 +6942,15 @@
         <v>42273</v>
       </c>
       <c r="D180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A180^1.5*D179</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>11</v>
       </c>
@@ -6957,15 +6961,15 @@
         <v>42274</v>
       </c>
       <c r="D181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A181^1.5*D180</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>10</v>
       </c>
@@ -6976,15 +6980,15 @@
         <v>42275</v>
       </c>
       <c r="D182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E182">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A182^1.5*D181</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>10</v>
       </c>
@@ -6995,15 +6999,15 @@
         <v>42276</v>
       </c>
       <c r="D183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E183">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <f>0.0003*A183^1.5*D182</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>10</v>
       </c>
@@ -7014,11 +7018,11 @@
         <v>42277</v>
       </c>
       <c r="D184">
-        <f t="shared" si="4"/>
+        <f>700*B184</f>
         <v>0</v>
       </c>
       <c r="E184">
-        <f t="shared" si="5"/>
+        <f>0.0003*A184^1.5*D183</f>
         <v>0</v>
       </c>
     </row>
